--- a/SideProjects/CityOfToronto_Tools/GraphicsReportAutomation_QCQA/Data/MasterOutputs/2022-02-10_QC_MasterFile_Scarborough District.xlsx
+++ b/SideProjects/CityOfToronto_Tools/GraphicsReportAutomation_QCQA/Data/MasterOutputs/2022-02-10_QC_MasterFile_Scarborough District.xlsx
@@ -16,6 +16,30 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
+    <t>File Number</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>InDate</t>
+  </si>
+  <si>
+    <t>Folder Name</t>
+  </si>
+  <si>
+    <t>QC_Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>StaffName</t>
+  </si>
+  <si>
     <t>21 233427 ESC 20 OZ</t>
   </si>
   <si>
@@ -110,30 +134,6 @@
   </si>
   <si>
     <t>3434 LAWRENCE AVE E</t>
-  </si>
-  <si>
-    <t>File Number</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>InDate</t>
-  </si>
-  <si>
-    <t>Folder Name</t>
-  </si>
-  <si>
-    <t>QC_Status</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>StaffName</t>
   </si>
 </sst>
 </file>
@@ -150,11 +150,11 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,9 +174,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -188,12 +194,25 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -207,6 +226,24 @@
           <bgColor rgb="FFDDDDDD"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,180 +546,190 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:H1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>-99999999999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:H9">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="greaterThan">
+      <formula>-99999999999</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:H2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>-99999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:H3">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>-99999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:H4">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>-99999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:H5">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>-99999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:H6">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
       <formula>-99999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:H7">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThan">
       <formula>-99999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
       <formula>-99999999999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:H9">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
       <formula>-99999999999</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SideProjects/CityOfToronto_Tools/GraphicsReportAutomation_QCQA/Data/MasterOutputs/2022-02-10_QC_MasterFile_Scarborough District.xlsx
+++ b/SideProjects/CityOfToronto_Tools/GraphicsReportAutomation_QCQA/Data/MasterOutputs/2022-02-10_QC_MasterFile_Scarborough District.xlsx
@@ -733,6 +733,14 @@
       <formula>-99999999999</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9">
+      <formula1>"Not Checked,In Progress,Checked"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H9">
+      <formula1>"Scott,Roger,Rudy,Ren"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>